--- a/tools/issueTracker.xlsx
+++ b/tools/issueTracker.xlsx
@@ -496,7 +496,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
